--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H2">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N2">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O2">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P2">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q2">
-        <v>14.40276759494057</v>
+        <v>7.913045481163777</v>
       </c>
       <c r="R2">
-        <v>14.40276759494057</v>
+        <v>71.217409330474</v>
       </c>
       <c r="S2">
-        <v>0.0009213433439508659</v>
+        <v>0.0004872237177120922</v>
       </c>
       <c r="T2">
-        <v>0.0009213433439508659</v>
+        <v>0.0004872237177120922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H3">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q3">
-        <v>46.06531676304733</v>
+        <v>24.86977196212911</v>
       </c>
       <c r="R3">
-        <v>46.06531676304733</v>
+        <v>223.827947659162</v>
       </c>
       <c r="S3">
-        <v>0.002946792878997159</v>
+        <v>0.001531286883524702</v>
       </c>
       <c r="T3">
-        <v>0.002946792878997159</v>
+        <v>0.001531286883524702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H4">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N4">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q4">
-        <v>71.21517637297978</v>
+        <v>38.49537186926445</v>
       </c>
       <c r="R4">
-        <v>71.21517637297978</v>
+        <v>346.45834682338</v>
       </c>
       <c r="S4">
-        <v>0.004555626431310382</v>
+        <v>0.002370245216143264</v>
       </c>
       <c r="T4">
-        <v>0.004555626431310382</v>
+        <v>0.002370245216143264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H5">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I5">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J5">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N5">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q5">
-        <v>73.25439419400449</v>
+        <v>40.08783297022534</v>
       </c>
       <c r="R5">
-        <v>73.25439419400449</v>
+        <v>360.790496732028</v>
       </c>
       <c r="S5">
-        <v>0.004686074954754382</v>
+        <v>0.002468296569414135</v>
       </c>
       <c r="T5">
-        <v>0.004686074954754382</v>
+        <v>0.002468296569414135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H6">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I6">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J6">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N6">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q6">
-        <v>14.82155592227167</v>
+        <v>8.747565759288888</v>
       </c>
       <c r="R6">
-        <v>14.82155592227167</v>
+        <v>78.72809183359999</v>
       </c>
       <c r="S6">
-        <v>0.0009481331838456906</v>
+        <v>0.000538606977593779</v>
       </c>
       <c r="T6">
-        <v>0.0009481331838456906</v>
+        <v>0.000538606977593779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H7">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N7">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O7">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P7">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q7">
-        <v>348.7203983432214</v>
+        <v>14.72232733246534</v>
       </c>
       <c r="R7">
-        <v>348.7203983432214</v>
+        <v>132.500945992188</v>
       </c>
       <c r="S7">
-        <v>0.02230760274339811</v>
+        <v>0.0009064862666811265</v>
       </c>
       <c r="T7">
-        <v>0.02230760274339811</v>
+        <v>0.0009064862666811264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H8">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J8">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q8">
-        <v>1115.335334374173</v>
+        <v>46.27054455604935</v>
       </c>
       <c r="R8">
-        <v>1115.335334374173</v>
+        <v>416.4349010044441</v>
       </c>
       <c r="S8">
-        <v>0.07134786976357498</v>
+        <v>0.002848979800864963</v>
       </c>
       <c r="T8">
-        <v>0.07134786976357498</v>
+        <v>0.002848979800864963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H9">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J9">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N9">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q9">
-        <v>1724.264764335438</v>
+        <v>71.62115607617335</v>
       </c>
       <c r="R9">
-        <v>1724.264764335438</v>
+        <v>644.5904046855601</v>
       </c>
       <c r="S9">
-        <v>0.1103010135626659</v>
+        <v>0.00440987303982222</v>
       </c>
       <c r="T9">
-        <v>0.1103010135626659</v>
+        <v>0.004409873039822219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H10">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J10">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N10">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q10">
-        <v>1773.638389659097</v>
+        <v>74.58395132970404</v>
       </c>
       <c r="R10">
-        <v>1773.638389659097</v>
+        <v>671.2555619673362</v>
       </c>
       <c r="S10">
-        <v>0.1134594385500035</v>
+        <v>0.004592298898700596</v>
       </c>
       <c r="T10">
-        <v>0.1134594385500035</v>
+        <v>0.004592298898700596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H11">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J11">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N11">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q11">
-        <v>358.8601184606032</v>
+        <v>16.27496351146667</v>
       </c>
       <c r="R11">
-        <v>358.8601184606032</v>
+        <v>146.4746716032</v>
       </c>
       <c r="S11">
-        <v>0.02295623944312214</v>
+        <v>0.001002085511395195</v>
       </c>
       <c r="T11">
-        <v>0.02295623944312214</v>
+        <v>0.001002085511395195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H12">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I12">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J12">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N12">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O12">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P12">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q12">
-        <v>634.2120887630577</v>
+        <v>368.5651040950204</v>
       </c>
       <c r="R12">
-        <v>634.2120887630577</v>
+        <v>3317.085936855184</v>
       </c>
       <c r="S12">
-        <v>0.04057047250004107</v>
+        <v>0.02269336890121225</v>
       </c>
       <c r="T12">
-        <v>0.04057047250004107</v>
+        <v>0.02269336890121224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H13">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I13">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J13">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q13">
-        <v>2028.442142889739</v>
+        <v>1158.356806347266</v>
       </c>
       <c r="R13">
-        <v>2028.442142889739</v>
+        <v>10425.21125712539</v>
       </c>
       <c r="S13">
-        <v>0.1297592045849161</v>
+        <v>0.07132259140542908</v>
       </c>
       <c r="T13">
-        <v>0.1297592045849161</v>
+        <v>0.07132259140542907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H14">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I14">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J14">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N14">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q14">
-        <v>3135.892144437775</v>
+        <v>1792.994969376231</v>
       </c>
       <c r="R14">
-        <v>3135.892144437775</v>
+        <v>16136.95472438608</v>
       </c>
       <c r="S14">
-        <v>0.2006026505378374</v>
+        <v>0.1103986672259196</v>
       </c>
       <c r="T14">
-        <v>0.2006026505378374</v>
+        <v>0.1103986672259196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H15">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I15">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J15">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N15">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q15">
-        <v>3225.687149820576</v>
+        <v>1867.166866004406</v>
       </c>
       <c r="R15">
-        <v>3225.687149820576</v>
+        <v>16804.50179403965</v>
       </c>
       <c r="S15">
-        <v>0.2063468264390398</v>
+        <v>0.1149655950049851</v>
       </c>
       <c r="T15">
-        <v>0.2063468264390398</v>
+        <v>0.1149655950049851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H16">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I16">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J16">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N16">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q16">
-        <v>652.6530320106281</v>
+        <v>407.4344691086222</v>
       </c>
       <c r="R16">
-        <v>652.6530320106281</v>
+        <v>3666.9102219776</v>
       </c>
       <c r="S16">
-        <v>0.04175013746410625</v>
+        <v>0.02508664170270386</v>
       </c>
       <c r="T16">
-        <v>0.04175013746410625</v>
+        <v>0.02508664170270385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H17">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I17">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J17">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N17">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O17">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P17">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q17">
-        <v>27.19152851398284</v>
+        <v>648.7723488218409</v>
       </c>
       <c r="R17">
-        <v>27.19152851398284</v>
+        <v>5838.951139396568</v>
       </c>
       <c r="S17">
-        <v>0.00173943887124922</v>
+        <v>0.03994634891132902</v>
       </c>
       <c r="T17">
-        <v>0.00173943887124922</v>
+        <v>0.03994634891132901</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H18">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I18">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J18">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q18">
-        <v>86.96845005733927</v>
+        <v>2039.015245007932</v>
       </c>
       <c r="R18">
-        <v>86.96845005733927</v>
+        <v>18351.13720507139</v>
       </c>
       <c r="S18">
-        <v>0.005563361490481891</v>
+        <v>0.1255466799109423</v>
       </c>
       <c r="T18">
-        <v>0.005563361490481891</v>
+        <v>0.1255466799109423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H19">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I19">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J19">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N19">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q19">
-        <v>134.4498191899199</v>
+        <v>3156.146756118462</v>
       </c>
       <c r="R19">
-        <v>134.4498191899199</v>
+        <v>28405.32080506616</v>
       </c>
       <c r="S19">
-        <v>0.008600739072506103</v>
+        <v>0.1943309386785983</v>
       </c>
       <c r="T19">
-        <v>0.008600739072506103</v>
+        <v>0.1943309386785983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H20">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I20">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J20">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N20">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q20">
-        <v>138.2997354758769</v>
+        <v>3286.708969028412</v>
       </c>
       <c r="R20">
-        <v>138.2997354758769</v>
+        <v>29580.3807212557</v>
       </c>
       <c r="S20">
-        <v>0.008847017763143348</v>
+        <v>0.2023699429934512</v>
       </c>
       <c r="T20">
-        <v>0.008847017763143348</v>
+        <v>0.2023699429934512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H21">
+        <v>148.567768</v>
+      </c>
+      <c r="I21">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J21">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N21">
+        <v>43.4464</v>
+      </c>
+      <c r="O21">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P21">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q21">
+        <v>717.1927417372444</v>
+      </c>
+      <c r="R21">
+        <v>6454.7346756352</v>
+      </c>
+      <c r="S21">
+        <v>0.04415914388172545</v>
+      </c>
+      <c r="T21">
+        <v>0.04415914388172545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.866572</v>
+      </c>
+      <c r="I22">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J22">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.10053366666667</v>
+      </c>
+      <c r="N22">
+        <v>39.301601</v>
+      </c>
+      <c r="O22">
+        <v>0.0658796861383586</v>
+      </c>
+      <c r="P22">
+        <v>0.06587968613835858</v>
+      </c>
+      <c r="Q22">
+        <v>29.98525255353022</v>
+      </c>
+      <c r="R22">
+        <v>269.867272981772</v>
+      </c>
+      <c r="S22">
+        <v>0.001846258341424112</v>
+      </c>
+      <c r="T22">
+        <v>0.001846258341424112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.866572</v>
+      </c>
+      <c r="I23">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J23">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.17343766666667</v>
+      </c>
+      <c r="N23">
+        <v>123.520313</v>
+      </c>
+      <c r="O23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="P23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="Q23">
+        <v>94.24012474189288</v>
+      </c>
+      <c r="R23">
+        <v>848.161122677036</v>
+      </c>
+      <c r="S23">
+        <v>0.005802572984534834</v>
+      </c>
+      <c r="T23">
+        <v>0.005802572984534834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.866572</v>
+      </c>
+      <c r="I24">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J24">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.73145666666667</v>
+      </c>
+      <c r="N24">
+        <v>191.19437</v>
+      </c>
+      <c r="O24">
+        <v>0.3204913989896037</v>
+      </c>
+      <c r="P24">
+        <v>0.3204913989896036</v>
+      </c>
+      <c r="Q24">
+        <v>145.8722119555155</v>
+      </c>
+      <c r="R24">
+        <v>1312.84990759964</v>
+      </c>
+      <c r="S24">
+        <v>0.008981674829120269</v>
+      </c>
+      <c r="T24">
+        <v>0.008981674829120271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="H21">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="I21">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="J21">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="N21">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="O21">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="P21">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="Q21">
-        <v>27.98217480254387</v>
-      </c>
-      <c r="R21">
-        <v>27.98217480254387</v>
-      </c>
-      <c r="S21">
-        <v>0.001790016421055762</v>
-      </c>
-      <c r="T21">
-        <v>0.001790016421055762</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.866572</v>
+      </c>
+      <c r="I25">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J25">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>66.36787400000001</v>
+      </c>
+      <c r="N25">
+        <v>199.103622</v>
+      </c>
+      <c r="O25">
+        <v>0.3337493586169783</v>
+      </c>
+      <c r="P25">
+        <v>0.3337493586169782</v>
+      </c>
+      <c r="Q25">
+        <v>151.9065951026427</v>
+      </c>
+      <c r="R25">
+        <v>1367.159355923784</v>
+      </c>
+      <c r="S25">
+        <v>0.009353225150427165</v>
+      </c>
+      <c r="T25">
+        <v>0.009353225150427165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H26">
+        <v>6.866572</v>
+      </c>
+      <c r="I26">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J26">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N26">
+        <v>43.4464</v>
+      </c>
+      <c r="O26">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P26">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q26">
+        <v>33.1475370823111</v>
+      </c>
+      <c r="R26">
+        <v>298.3278337408</v>
+      </c>
+      <c r="S26">
+        <v>0.002040967196345221</v>
+      </c>
+      <c r="T26">
+        <v>0.002040967196345221</v>
       </c>
     </row>
   </sheetData>
